--- a/StructureDefinition-ext-R5-GenomicStudy.xlsx
+++ b/StructureDefinition-ext-R5-GenomicStudy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -675,7 +675,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:concept.id</t>
@@ -702,7 +702,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -1994,7 +1994,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-GenomicStudy.xlsx
+++ b/StructureDefinition-ext-R5-GenomicStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>Extension.extension:encounter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.encounter</t>
+  </si>
+  <si>
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
@@ -494,6 +503,9 @@
     <t>Extension.extension:startDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.startDate</t>
+  </si>
+  <si>
     <t>Extension.extension:startDate.value[x]</t>
   </si>
   <si>
@@ -525,6 +537,9 @@
     <t>Extension.extension:basedOn.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.basedOn</t>
+  </si>
+  <si>
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
@@ -556,6 +571,9 @@
     <t>Extension.extension:referrer.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.referrer</t>
+  </si>
+  <si>
     <t>Extension.extension:referrer.value[x]</t>
   </si>
   <si>
@@ -587,6 +605,9 @@
     <t>Extension.extension:interpreter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.interpreter</t>
+  </si>
+  <si>
     <t>Extension.extension:interpreter.value[x]</t>
   </si>
   <si>
@@ -674,8 +695,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:concept.id</t>
@@ -702,8 +723,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:reference.id</t>
@@ -725,6 +746,9 @@
     <t>Extension.extension:reason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.reason</t>
+  </si>
+  <si>
     <t>Extension.extension:reason.value[x]</t>
   </si>
   <si>
@@ -756,6 +780,9 @@
     <t>Extension.extension:instantiatesCanonical.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.instantiatesCanonical</t>
+  </si>
+  <si>
     <t>Extension.extension:instantiatesCanonical.value[x]</t>
   </si>
   <si>
@@ -787,6 +814,9 @@
     <t>Extension.extension:instantiatesUri.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.instantiatesUri</t>
+  </si>
+  <si>
     <t>Extension.extension:instantiatesUri.value[x]</t>
   </si>
   <si>
@@ -812,6 +842,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -845,6 +878,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -897,6 +933,9 @@
     <t>Extension.extension:analysis.extension:identifier.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.identifier</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:identifier.value[x]</t>
   </si>
   <si>
@@ -928,6 +967,9 @@
     <t>Extension.extension:analysis.extension:methodType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.methodType</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:methodType.value[x]</t>
   </si>
   <si>
@@ -955,6 +997,9 @@
     <t>Extension.extension:analysis.extension:changeType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.changeType</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:changeType.value[x]</t>
   </si>
   <si>
@@ -982,6 +1027,9 @@
     <t>Extension.extension:analysis.extension:genomeBuild.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.genomeBuild</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:genomeBuild.value[x]</t>
   </si>
   <si>
@@ -1004,6 +1052,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:instantiatesCanonical.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.instantiatesCanonical</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:instantiatesCanonical.value[x]</t>
@@ -1034,6 +1085,9 @@
     <t>Extension.extension:analysis.extension:instantiatesUri.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.instantiatesUri</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:instantiatesUri.value[x]</t>
   </si>
   <si>
@@ -1061,6 +1115,9 @@
     <t>Extension.extension:analysis.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.title</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:title.value[x]</t>
   </si>
   <si>
@@ -1089,6 +1146,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:focus.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.focus</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:focus.value[x]</t>
@@ -1122,6 +1182,9 @@
     <t>Extension.extension:analysis.extension:specimen.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.specimen</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:specimen.value[x]</t>
   </si>
   <si>
@@ -1153,6 +1216,9 @@
     <t>Extension.extension:analysis.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.date</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:date.value[x]</t>
   </si>
   <si>
@@ -1177,6 +1243,9 @@
     <t>Extension.extension:analysis.extension:note.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.note</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:note.value[x]</t>
   </si>
   <si>
@@ -1202,6 +1271,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:protocolPerformed.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.protocolPerformed</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:protocolPerformed.value[x]</t>
@@ -1235,6 +1307,9 @@
     <t>Extension.extension:analysis.extension:regionsStudied.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.regionsStudied</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:regionsStudied.value[x]</t>
   </si>
   <si>
@@ -1266,6 +1341,9 @@
     <t>Extension.extension:analysis.extension:regionsCalled.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.regionsCalled</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:regionsCalled.value[x]</t>
   </si>
   <si>
@@ -1321,6 +1399,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.input.file</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:input.extension:file.value[x]</t>
@@ -1354,6 +1435,9 @@
     <t>Extension.extension:analysis.extension:input.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.input.type</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:input.extension:type.value[x]</t>
   </si>
   <si>
@@ -1379,6 +1463,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:input.extension:generatedBy.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.input.generatedBy</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:input.extension:generatedBy.value[x]</t>
@@ -1439,6 +1526,9 @@
     <t>Extension.extension:analysis.extension:output.extension:file.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.output.file</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:output.extension:file.value[x]</t>
   </si>
   <si>
@@ -1463,6 +1553,9 @@
     <t>Extension.extension:analysis.extension:output.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.output.type</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:output.extension:type.value[x]</t>
   </si>
   <si>
@@ -1518,6 +1611,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:performer.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.performer.actor</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:performer.extension:actor.value[x]</t>
@@ -1551,6 +1647,9 @@
     <t>Extension.extension:analysis.extension:performer.extension:role.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.performer.role</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:performer.extension:role.value[x]</t>
   </si>
   <si>
@@ -1603,6 +1702,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:device.extension:device.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.device.device</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:device.extension:device.value[x]</t>
@@ -1634,6 +1736,9 @@
   </si>
   <si>
     <t>Extension.extension:analysis.extension:device.extension:function.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-GenomicStudy.analysis.device.function</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:device.extension:function.value[x]</t>
@@ -1994,7 +2099,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -2800,7 +2905,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2842,7 +2947,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2857,15 +2962,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2888,7 +2993,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2945,7 +3050,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2957,21 +3062,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2996,14 +3101,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3072,7 +3177,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -3175,7 +3280,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -3280,7 +3385,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -3323,7 +3428,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3365,7 +3470,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3380,15 +3485,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3411,13 +3516,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3468,7 +3573,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3480,21 +3585,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3519,14 +3624,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3595,7 +3700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3698,7 +3803,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3803,7 +3908,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3846,7 +3951,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3888,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3903,15 +4008,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3934,13 +4039,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3991,7 +4096,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4003,21 +4108,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4042,14 +4147,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4118,7 +4223,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -4221,7 +4326,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4326,7 +4431,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -4369,7 +4474,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4411,7 +4516,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4426,15 +4531,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4457,13 +4562,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4514,7 +4619,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4526,21 +4631,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4565,14 +4670,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4641,7 +4746,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4744,7 +4849,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4849,7 +4954,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4892,7 +4997,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4934,7 +5039,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4949,15 +5054,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4980,13 +5085,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5037,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5049,21 +5154,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5088,14 +5193,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5164,7 +5269,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5267,7 +5372,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5372,7 +5477,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5415,7 +5520,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5457,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5472,15 +5577,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5503,13 +5608,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5560,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5572,21 +5677,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5611,14 +5716,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5687,7 +5792,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5790,7 +5895,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5895,7 +6000,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5938,7 +6043,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5980,7 +6085,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5995,15 +6100,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6026,13 +6131,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6083,7 +6188,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6095,21 +6200,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6134,14 +6239,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6210,7 +6315,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6313,7 +6418,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6416,13 +6521,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6447,10 +6552,10 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6521,10 +6626,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6624,10 +6729,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6729,10 +6834,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6772,7 +6877,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6814,7 +6919,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6829,15 +6934,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6863,13 +6968,13 @@
         <v>87</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6877,7 +6982,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>77</v>
@@ -6919,7 +7024,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6931,21 +7036,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6970,14 +7075,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7046,10 +7151,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7149,10 +7254,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7254,10 +7359,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7297,7 +7402,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7339,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -7354,15 +7459,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7385,13 +7490,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7442,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7454,21 +7559,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7493,14 +7598,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7569,10 +7674,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7672,10 +7777,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7777,10 +7882,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7820,7 +7925,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7862,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7877,15 +7982,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7908,13 +8013,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7965,7 +8070,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7977,15 +8082,15 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -8028,7 +8133,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8070,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8085,15 +8190,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8116,13 +8221,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8173,7 +8278,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8185,21 +8290,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8224,14 +8329,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8300,7 +8405,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8403,7 +8508,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8508,7 +8613,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -8551,7 +8656,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8608,15 +8713,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8639,13 +8744,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8696,7 +8801,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8708,21 +8813,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8747,14 +8852,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8823,7 +8928,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8926,7 +9031,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9031,7 +9136,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -9074,7 +9179,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9116,7 +9221,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -9131,15 +9236,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9165,10 +9270,10 @@
         <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9219,7 +9324,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9231,21 +9336,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9270,14 +9375,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9346,7 +9451,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9449,7 +9554,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9554,7 +9659,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9597,7 +9702,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9639,7 +9744,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9654,15 +9759,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9685,13 +9790,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9742,7 +9847,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9754,21 +9859,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9793,14 +9898,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9869,7 +9974,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9972,7 +10077,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -10077,7 +10182,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -10120,7 +10225,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10162,7 +10267,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -10177,15 +10282,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10208,13 +10313,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10265,7 +10370,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10277,21 +10382,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10316,14 +10421,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10392,7 +10497,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10495,7 +10600,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10598,13 +10703,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10629,14 +10734,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10705,10 +10810,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10808,10 +10913,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10913,10 +11018,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10956,7 +11061,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10998,7 +11103,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -11013,15 +11118,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11044,13 +11149,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11101,7 +11206,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11113,21 +11218,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11152,14 +11257,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11228,10 +11333,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11331,10 +11436,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11436,10 +11541,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11479,7 +11584,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11521,7 +11626,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11536,15 +11641,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11567,13 +11672,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11624,7 +11729,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11636,21 +11741,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11675,14 +11780,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11751,10 +11856,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11854,10 +11959,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11959,10 +12064,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12002,7 +12107,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12044,7 +12149,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -12059,15 +12164,15 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12090,13 +12195,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12147,7 +12252,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12159,21 +12264,21 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12198,14 +12303,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12274,10 +12379,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12377,10 +12482,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12482,10 +12587,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12525,7 +12630,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12567,7 +12672,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -12582,15 +12687,15 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12613,13 +12718,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12670,7 +12775,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12682,21 +12787,21 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12721,14 +12826,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12797,10 +12902,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12900,10 +13005,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13005,10 +13110,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13048,7 +13153,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13090,7 +13195,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -13105,15 +13210,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13136,13 +13241,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13193,7 +13298,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13205,21 +13310,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13244,14 +13349,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13320,10 +13425,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13423,10 +13528,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13528,10 +13633,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13571,7 +13676,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13613,7 +13718,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13628,15 +13733,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13662,10 +13767,10 @@
         <v>114</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13716,7 +13821,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13728,21 +13833,21 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13767,14 +13872,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13843,10 +13948,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13946,10 +14051,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14051,10 +14156,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14094,7 +14199,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14136,7 +14241,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>86</v>
@@ -14151,15 +14256,15 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14185,10 +14290,10 @@
         <v>87</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14239,7 +14344,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -14251,21 +14356,21 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14290,16 +14395,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14368,10 +14473,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14471,10 +14576,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14576,10 +14681,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14619,7 +14724,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14661,7 +14766,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>86</v>
@@ -14676,15 +14781,15 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14707,16 +14812,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14766,7 +14871,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14778,21 +14883,21 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14817,14 +14922,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14893,10 +14998,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14996,10 +15101,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15101,10 +15206,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15144,7 +15249,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15186,7 +15291,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -15201,15 +15306,15 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15232,13 +15337,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15289,7 +15394,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15301,21 +15406,21 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15340,14 +15445,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15416,10 +15521,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15519,10 +15624,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15624,10 +15729,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15667,7 +15772,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15709,7 +15814,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
@@ -15724,15 +15829,15 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15755,13 +15860,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15812,7 +15917,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -15824,21 +15929,21 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15863,14 +15968,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15939,10 +16044,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16042,10 +16147,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16147,10 +16252,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16190,7 +16295,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>250</v>
+        <v>398</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16232,7 +16337,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -16247,15 +16352,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16278,13 +16383,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16335,7 +16440,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16347,21 +16452,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16386,14 +16491,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16462,10 +16567,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16565,10 +16670,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16670,10 +16775,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16713,7 +16818,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16755,7 +16860,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16770,15 +16875,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16801,13 +16906,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16858,7 +16963,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16870,21 +16975,21 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16909,14 +17014,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16985,10 +17090,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17088,10 +17193,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17193,10 +17298,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17236,7 +17341,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17278,7 +17383,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>86</v>
@@ -17293,15 +17398,15 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17324,13 +17429,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17381,7 +17486,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17393,21 +17498,21 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17432,14 +17537,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17508,10 +17613,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17611,10 +17716,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17716,10 +17821,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17759,7 +17864,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17801,7 +17906,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>86</v>
@@ -17816,15 +17921,15 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17847,13 +17952,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17904,7 +18009,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17916,21 +18021,21 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17955,14 +18060,14 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18031,10 +18136,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18134,10 +18239,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18237,13 +18342,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18268,14 +18373,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18344,10 +18449,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18447,10 +18552,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18552,10 +18657,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18595,7 +18700,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18637,7 +18742,7 @@
         <v>77</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>86</v>
@@ -18652,15 +18757,15 @@
         <v>77</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18683,13 +18788,13 @@
         <v>77</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18740,7 +18845,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -18752,21 +18857,21 @@
         <v>77</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -18791,14 +18896,14 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -18867,10 +18972,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18970,10 +19075,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19075,10 +19180,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19118,7 +19223,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>126</v>
+        <v>461</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19160,7 +19265,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>86</v>
@@ -19175,15 +19280,15 @@
         <v>77</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19206,13 +19311,13 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19263,7 +19368,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -19275,21 +19380,21 @@
         <v>77</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>77</v>
@@ -19314,14 +19419,14 @@
         <v>93</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -19390,10 +19495,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19493,10 +19598,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19598,10 +19703,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19641,7 +19746,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -19683,7 +19788,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>86</v>
@@ -19698,15 +19803,15 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19729,13 +19834,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -19786,7 +19891,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -19798,18 +19903,18 @@
         <v>77</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -19849,7 +19954,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -19891,7 +19996,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>86</v>
@@ -19906,15 +20011,15 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -19937,13 +20042,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -19994,7 +20099,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -20006,21 +20111,21 @@
         <v>77</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20045,14 +20150,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20121,10 +20226,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20224,10 +20329,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20327,13 +20432,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20358,14 +20463,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20434,10 +20539,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20537,10 +20642,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20642,10 +20747,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20685,7 +20790,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20727,7 +20832,7 @@
         <v>77</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>86</v>
@@ -20742,15 +20847,15 @@
         <v>77</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20773,13 +20878,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -20830,7 +20935,7 @@
         <v>77</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -20842,21 +20947,21 @@
         <v>77</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -20881,14 +20986,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -20957,10 +21062,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21060,10 +21165,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21165,10 +21270,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21208,7 +21313,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21250,7 +21355,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>86</v>
@@ -21265,15 +21370,15 @@
         <v>77</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21296,13 +21401,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21353,7 +21458,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -21365,18 +21470,18 @@
         <v>77</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21416,7 +21521,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21458,7 +21563,7 @@
         <v>77</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>86</v>
@@ -21473,15 +21578,15 @@
         <v>77</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21504,13 +21609,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21561,7 +21666,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -21573,21 +21678,21 @@
         <v>77</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21612,14 +21717,14 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21688,10 +21793,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21791,10 +21896,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21894,13 +21999,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>77</v>
@@ -21925,14 +22030,14 @@
         <v>93</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>77</v>
@@ -22001,10 +22106,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22104,10 +22209,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22209,10 +22314,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22252,7 +22357,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -22294,7 +22399,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>86</v>
@@ -22309,15 +22414,15 @@
         <v>77</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22340,13 +22445,13 @@
         <v>77</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -22397,7 +22502,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -22409,21 +22514,21 @@
         <v>77</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22448,14 +22553,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22524,10 +22629,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22627,10 +22732,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22732,10 +22837,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22775,7 +22880,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -22817,7 +22922,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>86</v>
@@ -22832,15 +22937,15 @@
         <v>77</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22863,13 +22968,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -22920,7 +23025,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -22932,18 +23037,18 @@
         <v>77</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -22983,7 +23088,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23025,7 +23130,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>86</v>
@@ -23040,15 +23145,15 @@
         <v>77</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23071,13 +23176,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23128,7 +23233,7 @@
         <v>77</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>78</v>
@@ -23140,21 +23245,21 @@
         <v>77</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23179,14 +23284,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23255,10 +23360,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23358,10 +23463,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23461,13 +23566,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -23492,14 +23597,14 @@
         <v>93</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -23568,10 +23673,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23671,10 +23776,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23776,10 +23881,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -23819,7 +23924,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>504</v>
+        <v>550</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -23861,7 +23966,7 @@
         <v>77</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>86</v>
@@ -23876,15 +23981,15 @@
         <v>77</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -23907,13 +24012,13 @@
         <v>77</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -23964,7 +24069,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
@@ -23976,21 +24081,21 @@
         <v>77</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>77</v>
@@ -24015,14 +24120,14 @@
         <v>93</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -24091,10 +24196,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24194,10 +24299,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24299,10 +24404,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24342,7 +24447,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24384,7 +24489,7 @@
         <v>77</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>86</v>
@@ -24399,15 +24504,15 @@
         <v>77</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24430,13 +24535,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -24487,7 +24592,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -24499,18 +24604,18 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24550,7 +24655,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24592,7 +24697,7 @@
         <v>77</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>86</v>
@@ -24607,15 +24712,15 @@
         <v>77</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24638,13 +24743,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24695,7 +24800,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>78</v>
@@ -24707,15 +24812,15 @@
         <v>77</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -24758,7 +24863,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24800,7 +24905,7 @@
         <v>77</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>86</v>
@@ -24815,15 +24920,15 @@
         <v>77</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -24846,13 +24951,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -24903,7 +25008,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
@@ -24915,18 +25020,18 @@
         <v>77</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25008,7 +25113,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>86</v>
@@ -25023,15 +25128,15 @@
         <v>77</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25054,13 +25159,13 @@
         <v>77</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -25111,7 +25216,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -25123,10 +25228,10 @@
         <v>77</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-GenomicStudy.xlsx
+++ b/StructureDefinition-ext-R5-GenomicStudy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -475,7 +475,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>Extension.extension:referrer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -695,8 +695,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:concept.id</t>
@@ -723,8 +722,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:reference.id</t>
@@ -739,7 +737,7 @@
     <t>Extension.extension:reason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
 </t>
   </si>
   <si>
@@ -786,7 +784,7 @@
     <t>Extension.extension:instantiatesCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
 </t>
   </si>
   <si>
@@ -1060,7 +1058,7 @@
     <t>Extension.extension:analysis.extension:instantiatesCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition)
 </t>
   </si>
   <si>
@@ -1154,7 +1152,7 @@
     <t>Extension.extension:analysis.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -1188,7 +1186,7 @@
     <t>Extension.extension:analysis.extension:specimen.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|0.0.1-snapshot-3|Specimen|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|Specimen)
 </t>
   </si>
   <si>
@@ -1279,7 +1277,7 @@
     <t>Extension.extension:analysis.extension:protocolPerformed.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
 </t>
   </si>
   <si>
@@ -1313,7 +1311,7 @@
     <t>Extension.extension:analysis.extension:regionsStudied.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
 </t>
   </si>
   <si>
@@ -1410,7 +1408,7 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -1472,7 +1470,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-GenomicStudy|0.0.1-snapshot-3|Basic|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-GenomicStudy|Basic)</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:input.url</t>
@@ -1619,7 +1617,7 @@
     <t>Extension.extension:analysis.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -1710,7 +1708,7 @@
     <t>Extension.extension:analysis.extension:device.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -2099,7 +2097,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="103.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-GenomicStudy.xlsx
+++ b/StructureDefinition-ext-R5-GenomicStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,6 +404,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the GenomicStudy.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-genomicstudy-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -445,6 +454,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type relevant to GenomicStudy.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-genomicstudy-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:encounter</t>
   </si>
   <si>
@@ -475,7 +493,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -543,7 +561,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
 </t>
   </si>
   <si>
@@ -577,7 +595,7 @@
     <t>Extension.extension:referrer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -695,7 +713,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:concept.id</t>
@@ -722,7 +740,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.extension:reference.id</t>
@@ -737,7 +755,7 @@
     <t>Extension.extension:reason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -784,7 +802,7 @@
     <t>Extension.extension:instantiatesCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -971,6 +989,12 @@
     <t>Extension.extension:analysis.extension:methodType.value[x]</t>
   </si>
   <si>
+    <t>The method type of the GenomicStudy analysis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-genomicstudy-methodtype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:changeType</t>
   </si>
   <si>
@@ -1001,6 +1025,12 @@
     <t>Extension.extension:analysis.extension:changeType.value[x]</t>
   </si>
   <si>
+    <t>The change type relevant to GenomicStudy analysis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-genomicstudy-changetype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:genomeBuild</t>
   </si>
   <si>
@@ -1058,7 +1088,7 @@
     <t>Extension.extension:analysis.extension:instantiatesCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1152,7 +1182,7 @@
     <t>Extension.extension:analysis.extension:focus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1186,7 +1216,7 @@
     <t>Extension.extension:analysis.extension:specimen.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|Specimen)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|0.0.1-snapshot-3|Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1277,7 +1307,7 @@
     <t>Extension.extension:analysis.extension:protocolPerformed.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|Task)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Task|0.0.1-snapshot-3|Task|4.0.1)
 </t>
   </si>
   <si>
@@ -1311,7 +1341,7 @@
     <t>Extension.extension:analysis.extension:regionsStudied.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1438,7 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1439,6 +1469,12 @@
     <t>Extension.extension:analysis.extension:input.extension:type.value[x]</t>
   </si>
   <si>
+    <t>The data format of the data file.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-genomicstudy-dataformat-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:analysis.extension:input.extension:generatedBy</t>
   </si>
   <si>
@@ -1470,7 +1506,7 @@
   </si>
   <si>
     <t>Identifier
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-GenomicStudy|Basic)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-GenomicStudy|0.0.1-snapshot-3|Basic|4.0.1)</t>
   </si>
   <si>
     <t>Extension.extension:analysis.extension:input.url</t>
@@ -1617,7 +1653,7 @@
     <t>Extension.extension:analysis.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1708,7 +1744,7 @@
     <t>Extension.extension:analysis.extension:device.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -2097,7 +2133,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="103.43359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -2107,8 +2143,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3024,13 +3060,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -3048,7 +3084,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3060,7 +3096,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -3068,13 +3104,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -3099,14 +3135,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3175,7 +3211,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -3278,7 +3314,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -3383,7 +3419,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -3426,7 +3462,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3488,7 +3524,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -3514,13 +3550,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3547,13 +3583,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3571,7 +3607,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3583,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -3591,13 +3627,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3622,14 +3658,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3698,7 +3734,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3801,7 +3837,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3906,7 +3942,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3949,7 +3985,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -4011,7 +4047,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -4037,13 +4073,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4094,7 +4130,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4142,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -4114,13 +4150,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4145,14 +4181,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4221,7 +4257,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -4324,7 +4360,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4429,7 +4465,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -4472,7 +4508,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4534,7 +4570,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -4560,13 +4596,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4617,7 +4653,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4629,7 +4665,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -4637,13 +4673,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4668,14 +4704,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4744,7 +4780,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4847,7 +4883,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4952,7 +4988,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4995,7 +5031,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5093,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -5083,13 +5119,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5140,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5152,7 +5188,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>120</v>
@@ -5160,13 +5196,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5191,14 +5227,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5267,7 +5303,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5370,7 +5406,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5475,7 +5511,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5518,7 +5554,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5580,7 +5616,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -5606,13 +5642,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5663,7 +5699,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5675,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>120</v>
@@ -5683,13 +5719,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5714,14 +5750,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5826,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5893,7 +5929,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5998,7 +6034,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -6041,7 +6077,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6103,7 +6139,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -6129,13 +6165,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6186,7 +6222,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6198,7 +6234,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>120</v>
@@ -6206,13 +6242,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6237,14 +6273,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6349,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6416,7 +6452,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6519,13 +6555,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6550,10 +6586,10 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6624,10 +6660,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6727,10 +6763,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6832,10 +6868,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6875,7 +6911,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6937,10 +6973,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6966,13 +7002,13 @@
         <v>87</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6980,7 +7016,7 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>77</v>
@@ -7022,7 +7058,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7034,7 +7070,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>120</v>
@@ -7042,13 +7078,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7073,14 +7109,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7149,10 +7185,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7252,10 +7288,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7357,10 +7393,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7400,7 +7436,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7462,10 +7498,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7488,13 +7524,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7545,7 +7581,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7557,7 +7593,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>120</v>
@@ -7565,13 +7601,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7596,14 +7632,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7672,10 +7708,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7775,10 +7811,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7880,10 +7916,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7923,7 +7959,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7985,10 +8021,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8011,13 +8047,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8068,7 +8104,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8080,7 +8116,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>120</v>
@@ -8088,7 +8124,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -8131,7 +8167,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8193,7 +8229,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -8219,13 +8255,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8276,7 +8312,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8288,7 +8324,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>120</v>
@@ -8296,13 +8332,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8327,14 +8363,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8403,7 +8439,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8506,7 +8542,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8611,7 +8647,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -8654,7 +8690,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8716,7 +8752,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -8742,13 +8778,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8799,7 +8835,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8811,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>120</v>
@@ -8819,13 +8855,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8850,14 +8886,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8926,7 +8962,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9029,7 +9065,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9134,7 +9170,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -9177,7 +9213,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9239,7 +9275,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -9268,10 +9304,10 @@
         <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9322,7 +9358,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9334,7 +9370,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>120</v>
@@ -9342,13 +9378,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9373,14 +9409,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9449,7 +9485,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9552,7 +9588,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9657,7 +9693,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9700,7 +9736,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9762,7 +9798,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -9788,13 +9824,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9845,7 +9881,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9857,7 +9893,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>120</v>
@@ -9865,13 +9901,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9896,14 +9932,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9972,7 +10008,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -10075,7 +10111,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -10180,7 +10216,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -10223,7 +10259,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10285,7 +10321,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -10311,13 +10347,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10368,7 +10404,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10380,7 +10416,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>120</v>
@@ -10388,13 +10424,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10419,14 +10455,14 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10495,7 +10531,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10598,7 +10634,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10701,13 +10737,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10732,14 +10768,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10808,10 +10844,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10911,10 +10947,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11016,10 +11052,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11059,7 +11095,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11121,10 +11157,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11147,13 +11183,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11204,7 +11240,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11216,7 +11252,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>120</v>
@@ -11224,13 +11260,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11255,14 +11291,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11331,10 +11367,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11434,10 +11470,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11539,10 +11575,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11582,7 +11618,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11644,10 +11680,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11670,13 +11706,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11703,13 +11739,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11727,7 +11763,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11739,7 +11775,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>120</v>
@@ -11747,13 +11783,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11778,14 +11814,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11854,10 +11890,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11957,10 +11993,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12062,10 +12098,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12105,7 +12141,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12167,10 +12203,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12193,13 +12229,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12226,13 +12262,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -12250,7 +12286,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12262,7 +12298,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>120</v>
@@ -12270,13 +12306,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12301,14 +12337,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12377,10 +12413,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12480,10 +12516,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12585,10 +12621,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12628,7 +12664,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12690,10 +12726,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12716,13 +12752,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12773,7 +12809,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12785,7 +12821,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>120</v>
@@ -12793,13 +12829,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12824,14 +12860,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12900,10 +12936,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13003,10 +13039,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13108,10 +13144,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13151,7 +13187,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13213,10 +13249,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13239,13 +13275,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13296,7 +13332,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13308,7 +13344,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>120</v>
@@ -13316,13 +13352,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13347,14 +13383,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13423,10 +13459,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13526,10 +13562,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13631,10 +13667,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13674,7 +13710,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13736,10 +13772,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13765,10 +13801,10 @@
         <v>114</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13819,7 +13855,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13831,7 +13867,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>120</v>
@@ -13839,13 +13875,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13870,14 +13906,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13946,10 +13982,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14049,10 +14085,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14154,10 +14190,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14197,7 +14233,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14259,10 +14295,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14288,10 +14324,10 @@
         <v>87</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14342,7 +14378,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -14354,7 +14390,7 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>120</v>
@@ -14362,13 +14398,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14393,16 +14429,16 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14471,10 +14507,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14574,10 +14610,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14679,10 +14715,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14722,7 +14758,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14784,10 +14820,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14810,16 +14846,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14869,7 +14905,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14881,7 +14917,7 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>120</v>
@@ -14889,13 +14925,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14920,14 +14956,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14996,10 +15032,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15099,10 +15135,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15204,10 +15240,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15247,7 +15283,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15309,10 +15345,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15335,13 +15371,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15392,7 +15428,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15404,7 +15440,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>120</v>
@@ -15412,13 +15448,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15443,14 +15479,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15519,10 +15555,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15622,10 +15658,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15727,10 +15763,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15770,7 +15806,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15832,10 +15868,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15858,13 +15894,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15915,7 +15951,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -15927,7 +15963,7 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>120</v>
@@ -15935,13 +15971,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15966,14 +16002,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16042,10 +16078,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16145,10 +16181,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16250,10 +16286,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16293,7 +16329,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16355,10 +16391,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16381,13 +16417,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16438,7 +16474,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16450,7 +16486,7 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>120</v>
@@ -16458,13 +16494,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16489,14 +16525,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16565,10 +16601,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16668,10 +16704,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16773,10 +16809,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16816,7 +16852,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16878,10 +16914,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16904,13 +16940,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16961,7 +16997,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16973,7 +17009,7 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>120</v>
@@ -16981,13 +17017,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -17012,14 +17048,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -17088,10 +17124,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17191,10 +17227,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17296,10 +17332,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17339,7 +17375,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17401,10 +17437,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17427,13 +17463,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17484,7 +17520,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17496,7 +17532,7 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>120</v>
@@ -17504,13 +17540,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17535,14 +17571,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17611,10 +17647,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17714,10 +17750,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17819,10 +17855,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17862,7 +17898,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17924,10 +17960,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17950,13 +17986,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18007,7 +18043,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -18019,7 +18055,7 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>120</v>
@@ -18027,13 +18063,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18058,14 +18094,14 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18134,10 +18170,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18237,10 +18273,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18340,13 +18376,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18371,14 +18407,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18447,10 +18483,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18550,10 +18586,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18655,10 +18691,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18698,7 +18734,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18760,10 +18796,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18786,13 +18822,13 @@
         <v>77</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18843,7 +18879,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -18855,7 +18891,7 @@
         <v>77</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>120</v>
@@ -18863,13 +18899,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -18894,14 +18930,14 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -18970,10 +19006,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19073,10 +19109,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19178,10 +19214,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19221,7 +19257,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19283,10 +19319,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19309,13 +19345,13 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19342,13 +19378,13 @@
         <v>77</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>77</v>
@@ -19366,7 +19402,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -19378,7 +19414,7 @@
         <v>77</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>120</v>
@@ -19386,13 +19422,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>77</v>
@@ -19417,14 +19453,14 @@
         <v>93</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -19493,10 +19529,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19596,10 +19632,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19701,10 +19737,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19744,7 +19780,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -19806,10 +19842,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19832,13 +19868,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -19889,7 +19925,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -19901,7 +19937,7 @@
         <v>77</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>120</v>
@@ -19909,10 +19945,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -19952,7 +19988,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20014,10 +20050,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20040,13 +20076,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20097,7 +20133,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -20109,7 +20145,7 @@
         <v>77</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>120</v>
@@ -20117,13 +20153,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20148,14 +20184,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20224,10 +20260,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20327,10 +20363,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20430,13 +20466,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20461,14 +20497,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20537,10 +20573,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20640,10 +20676,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20745,10 +20781,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20788,7 +20824,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20850,10 +20886,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20876,13 +20912,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -20933,7 +20969,7 @@
         <v>77</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -20945,7 +20981,7 @@
         <v>77</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>120</v>
@@ -20953,13 +20989,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -20984,14 +21020,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21060,10 +21096,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21163,10 +21199,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21268,10 +21304,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21311,7 +21347,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21373,10 +21409,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21399,13 +21435,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21432,13 +21468,13 @@
         <v>77</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>77</v>
@@ -21456,7 +21492,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -21468,7 +21504,7 @@
         <v>77</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>120</v>
@@ -21476,10 +21512,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21519,7 +21555,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21581,10 +21617,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21607,13 +21643,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21664,7 +21700,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -21676,7 +21712,7 @@
         <v>77</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>120</v>
@@ -21684,13 +21720,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21715,14 +21751,14 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21791,10 +21827,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21894,10 +21930,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21997,13 +22033,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>77</v>
@@ -22028,14 +22064,14 @@
         <v>93</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>77</v>
@@ -22104,10 +22140,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22207,10 +22243,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22312,10 +22348,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22355,7 +22391,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -22417,10 +22453,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22443,13 +22479,13 @@
         <v>77</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -22500,7 +22536,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -22512,7 +22548,7 @@
         <v>77</v>
       </c>
       <c r="AJ195" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK195" t="s" s="2">
         <v>120</v>
@@ -22520,13 +22556,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22551,14 +22587,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22627,10 +22663,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22730,10 +22766,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22835,10 +22871,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22878,7 +22914,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -22940,10 +22976,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22966,13 +23002,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23023,7 +23059,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -23035,7 +23071,7 @@
         <v>77</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>120</v>
@@ -23043,10 +23079,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23086,7 +23122,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23148,10 +23184,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23174,13 +23210,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23231,7 +23267,7 @@
         <v>77</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>78</v>
@@ -23243,7 +23279,7 @@
         <v>77</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>120</v>
@@ -23251,13 +23287,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23282,14 +23318,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23358,10 +23394,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23461,10 +23497,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23564,13 +23600,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -23595,14 +23631,14 @@
         <v>93</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -23671,10 +23707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23774,10 +23810,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23879,10 +23915,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -23922,7 +23958,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -23984,10 +24020,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24010,13 +24046,13 @@
         <v>77</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24067,7 +24103,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
@@ -24079,7 +24115,7 @@
         <v>77</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>120</v>
@@ -24087,13 +24123,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>77</v>
@@ -24118,14 +24154,14 @@
         <v>93</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -24194,10 +24230,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24297,10 +24333,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24402,10 +24438,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24445,7 +24481,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24507,10 +24543,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24533,13 +24569,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -24590,7 +24626,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -24602,7 +24638,7 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>120</v>
@@ -24610,10 +24646,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24653,7 +24689,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24715,10 +24751,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24741,13 +24777,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24798,7 +24834,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>78</v>
@@ -24810,7 +24846,7 @@
         <v>77</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>120</v>
@@ -24818,7 +24854,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -24861,7 +24897,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24923,7 +24959,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>122</v>
@@ -24949,13 +24985,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -25006,7 +25042,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
@@ -25018,7 +25054,7 @@
         <v>77</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>120</v>
@@ -25131,10 +25167,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25157,13 +25193,13 @@
         <v>77</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -25214,7 +25250,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -25226,7 +25262,7 @@
         <v>77</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>120</v>
